--- a/test_cases/test_api_1.xlsx
+++ b/test_cases/test_api_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>tel</t>
   </si>
@@ -70,27 +70,30 @@
     <t>{'status':1,'code':'10001','data': None,'msg':'注册成功'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>不输入手机号</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20103','data': None,'msg':'手机号不能为空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>不输入手机号</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20103','data': None,'msg':'手机号不能为空'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
     <t>不输入密码</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>{'status':0,'code':'20110','data': None,'msg':'手机号码已被注册'}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
-  </si>
-  <si>
     <t>输入格式错误的手机号</t>
   </si>
   <si>
@@ -187,10 +187,7 @@
     <t>{"status":1,"code":"10001","data":{"id":1126351,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13564563275","leaveamount":"expect_amount","type":"1","regtime":"2019-03-20 18:40:03.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"47000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>failed</t>
+    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"56000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{'mobilephone':'','amount':10000}</t>
@@ -205,7 +202,7 @@
     <t>{'status':0,'code':'20104','data': None,'msg':'此手机号对应的会员不存在'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":70870,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15012345678","leaveamount":"30350.00","type":"1","regtime":"2019-06-07 17:09:44.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":70870,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15012345678","leaveamount":"40350.00","type":"1","regtime":"2019-06-07 17:09:44.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{'mobilephone':'186887575656','amount':10000}</t>
@@ -274,7 +271,7 @@
     <t>{'status':1,'code':'10001','data': None,'msg':'取现成功'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"46000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"取现成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"55000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"取现成功"}</t>
   </si>
   <si>
     <t>{'mobilephone':'','amount':'1000'}</t>
@@ -1447,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>13564563338</v>
+        <v>13564563339</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1562,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J3" s="19" t="n"/>
     </row>
@@ -1577,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
@@ -1586,16 +1583,16 @@
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J4" s="19" t="n"/>
     </row>
@@ -1607,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
@@ -1616,16 +1613,16 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J5" s="19" t="n"/>
     </row>
@@ -1655,7 +1652,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J6" s="19" t="n"/>
     </row>
@@ -1752,7 +1749,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="3" s="1" spans="1:9">
@@ -1781,7 +1778,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="4" s="1" spans="1:9">
@@ -1792,7 +1789,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>37</v>
@@ -1804,13 +1801,13 @@
         <v>41</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="5" s="1" spans="1:9">
@@ -1839,7 +1836,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="6" s="1" spans="1:9">
@@ -1868,7 +1865,7 @@
         <v>44</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +1964,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="3" s="1" spans="1:10">
@@ -1999,7 +1996,7 @@
         <v>55</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="4" s="1" spans="1:10">
@@ -2019,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="10" t="n"/>
       <c r="H4" s="10" t="s">
@@ -2029,7 +2026,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="5" s="1" spans="1:10">
@@ -2040,7 +2037,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>51</v>
@@ -2049,17 +2046,17 @@
         <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="10" t="n"/>
       <c r="H5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="J5" s="11" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="6" s="1" spans="1:10">
@@ -2079,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="10" t="n"/>
       <c r="H6" s="10" t="s">
@@ -2089,7 +2086,7 @@
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="7" s="1" spans="1:10">
@@ -2100,7 +2097,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>51</v>
@@ -2109,17 +2106,17 @@
         <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="10" t="n"/>
       <c r="H7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="8" s="1" spans="1:10">
@@ -2130,7 +2127,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>51</v>
@@ -2139,17 +2136,17 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="10" t="n"/>
       <c r="H8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="J8" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="9" s="1" spans="1:10">
@@ -2160,7 +2157,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>51</v>
@@ -2169,17 +2166,17 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="10" t="n"/>
       <c r="H9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="J9" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="10" s="1" spans="1:10">
@@ -2190,7 +2187,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>51</v>
@@ -2199,17 +2196,17 @@
         <v>19</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="10" t="n"/>
       <c r="H10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="J10" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="3" s="1" spans="1:9">
@@ -2316,28 +2313,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="4" s="1" spans="1:9">
@@ -2345,28 +2342,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="5" s="1" spans="1:9">
@@ -2374,28 +2371,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="6" s="1" spans="1:9">
@@ -2403,28 +2400,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="7" s="1" spans="1:9">
@@ -2432,28 +2429,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="8" s="1" spans="1:9">
@@ -2461,28 +2458,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="9" s="1" spans="1:9">
@@ -2490,28 +2487,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="10" s="1" spans="1:9">
@@ -2519,28 +2516,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2636,13 +2633,13 @@
       </c>
       <c r="G2" s="8" t="n"/>
       <c r="H2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="3" s="1" spans="1:10">
@@ -2650,31 +2647,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="J3" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="4" s="1" spans="1:10">
@@ -2682,29 +2679,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="15" t="n"/>
       <c r="H4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2797,13 +2794,13 @@
       </c>
       <c r="G2" s="8" t="n"/>
       <c r="H2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="3" s="1" spans="1:10">
@@ -2811,31 +2808,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="J3" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="4" s="1" spans="1:10">
@@ -2843,29 +2840,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="10" t="n"/>
       <c r="H4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="5" s="1" spans="1:10">
@@ -2873,29 +2870,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="10" t="n"/>
       <c r="H5" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="6" s="1" spans="1:10">
@@ -2903,29 +2900,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="10" t="n"/>
       <c r="H6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="J6" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="7" s="1" spans="1:10">
@@ -2933,29 +2930,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="10" t="n"/>
       <c r="H7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="J7" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="8" s="1" spans="1:10">
@@ -2963,29 +2960,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="10" t="n"/>
       <c r="H8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="9" s="1" spans="1:10">
@@ -2993,29 +2990,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="10" t="n"/>
       <c r="H9" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>143</v>
-      </c>
       <c r="J9" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/test_api_1.xlsx
+++ b/test_cases/test_api_1.xlsx
@@ -187,7 +187,7 @@
     <t>{"status":1,"code":"10001","data":{"id":1126351,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13564563275","leaveamount":"expect_amount","type":"1","regtime":"2019-03-20 18:40:03.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"56000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"65000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{'mobilephone':'','amount':10000}</t>
@@ -202,7 +202,7 @@
     <t>{'status':0,'code':'20104','data': None,'msg':'此手机号对应的会员不存在'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":70870,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15012345678","leaveamount":"40350.00","type":"1","regtime":"2019-06-07 17:09:44.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":70870,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15012345678","leaveamount":"50350.00","type":"1","regtime":"2019-06-07 17:09:44.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{'mobilephone':'186887575656','amount':10000}</t>
@@ -271,7 +271,7 @@
     <t>{'status':1,'code':'10001','data': None,'msg':'取现成功'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"55000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"取现成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"64000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"取现成功"}</t>
   </si>
   <si>
     <t>{'mobilephone':'','amount':'1000'}</t>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>13564563339</v>
+        <v>13564563340</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/test_api_1.xlsx
+++ b/test_cases/test_api_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>tel</t>
   </si>
@@ -70,126 +70,129 @@
     <t>{'status':1,'code':'10001','data': None,'msg':'注册成功'}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>不输入手机号</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20103','data': None,'msg':'手机号不能为空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>不输入密码</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688771656','pwd':''}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20103','data': None,'msg':'密码不能为空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>输入已存在的手机号</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20110','data': None,'msg':'手机号码已被注册'}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
   </si>
   <si>
+    <t>输入格式错误的手机号</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'186887756569','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20109','data': None,'msg':'手机号码格式不正确'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>正常登录</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'#normal_phone#','pwd':'#normal_pwd#'}</t>
+  </si>
+  <si>
+    <t>{'status':1,'code':'10001','data': None,'msg':'登录成功'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','pwd':''}</t>
+  </si>
+  <si>
+    <t>输入错误的手机号</t>
+  </si>
+  <si>
+    <t>{'status':0,'code':'20111','data': None,'msg':'用户名或密码错误'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>输入错误的密码</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18688775656','pwd':'1234567'}</t>
+  </si>
+  <si>
+    <t>Sql</t>
+  </si>
+  <si>
+    <t>{'status':1,'code':'10001','data':None,'msg':'登录成功'}</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>正常充值</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'#normal_phone#','amount':10000}</t>
+  </si>
+  <si>
+    <t>{'sql':'SELECT leaveamount FROM member WHERE MobilePhone = 13564563275'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1126351,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13564563275","leaveamount":"expect_amount","type":"1","regtime":"2019-03-20 18:40:03.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"83000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>failed</t>
   </si>
   <si>
-    <t>不输入手机号</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20103','data': None,'msg':'手机号不能为空'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>不输入密码</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688771656','pwd':''}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20103','data': None,'msg':'密码不能为空'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>输入已存在的手机号</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20110','data': None,'msg':'手机号码已被注册'}</t>
-  </si>
-  <si>
-    <t>输入格式错误的手机号</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'186887756569','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20109','data': None,'msg':'手机号码格式不正确'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>正常登录</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'#normal_phone#','pwd':'#normal_pwd#'}</t>
-  </si>
-  <si>
-    <t>{'status':1,'code':'10001','data': None,'msg':'登录成功'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','pwd':''}</t>
-  </si>
-  <si>
-    <t>输入错误的手机号</t>
-  </si>
-  <si>
-    <t>{'status':0,'code':'20111','data': None,'msg':'用户名或密码错误'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>输入错误的密码</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18688775656','pwd':'1234567'}</t>
-  </si>
-  <si>
-    <t>Sql</t>
-  </si>
-  <si>
-    <t>{'status':1,'code':'10001','data':None,'msg':'登录成功'}</t>
-  </si>
-  <si>
-    <t>Recharge</t>
-  </si>
-  <si>
-    <t>正常充值</t>
-  </si>
-  <si>
-    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'#normal_phone#','amount':10000}</t>
-  </si>
-  <si>
-    <t>{'sql':'SELECT leaveamount FROM member WHERE MobilePhone = 13564563275'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1126351,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13564563275","leaveamount":"expect_amount","type":"1","regtime":"2019-03-20 18:40:03.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"65000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>{'mobilephone':'','amount':10000}</t>
   </si>
   <si>
@@ -202,7 +205,7 @@
     <t>{'status':0,'code':'20104','data': None,'msg':'此手机号对应的会员不存在'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":70870,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15012345678","leaveamount":"50350.00","type":"1","regtime":"2019-06-07 17:09:44.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":70870,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15012345678","leaveamount":"70350.00","type":"1","regtime":"2019-06-07 17:09:44.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{'mobilephone':'186887575656','amount':10000}</t>
@@ -271,7 +274,7 @@
     <t>{'status':1,'code':'10001','data': None,'msg':'取现成功'}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"64000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"取现成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":93318,"regname":"lemonhuahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989999","leaveamount":"82000.00","type":"1","regtime":"2019-07-08 10:22:52.0"},"msg":"取现成功"}</t>
   </si>
   <si>
     <t>{'mobilephone':'','amount':'1000'}</t>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>13564563340</v>
+        <v>13564563342</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1565,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J3" s="19" t="n"/>
     </row>
@@ -1574,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
@@ -1583,16 +1586,16 @@
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J4" s="19" t="n"/>
     </row>
@@ -1604,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
@@ -1613,16 +1616,16 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J5" s="19" t="n"/>
     </row>
@@ -1652,7 +1655,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J6" s="19" t="n"/>
     </row>
@@ -1749,7 +1752,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="3" s="1" spans="1:9">
@@ -1778,7 +1781,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="4" s="1" spans="1:9">
@@ -1789,7 +1792,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>37</v>
@@ -1801,13 +1804,13 @@
         <v>41</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="5" s="1" spans="1:9">
@@ -1836,7 +1839,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="6" s="1" spans="1:9">
@@ -1865,7 +1868,7 @@
         <v>44</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +1967,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="3" s="1" spans="1:10">
@@ -1996,7 +1999,7 @@
         <v>55</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="4" s="1" spans="1:10">
@@ -2016,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="10" t="n"/>
       <c r="H4" s="10" t="s">
@@ -2026,7 +2029,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="5" s="1" spans="1:10">
@@ -2037,7 +2040,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>51</v>
@@ -2046,17 +2049,17 @@
         <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="10" t="n"/>
       <c r="H5" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="6" s="1" spans="1:10">
@@ -2076,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="10" t="n"/>
       <c r="H6" s="10" t="s">
@@ -2086,7 +2089,7 @@
         <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="7" s="1" spans="1:10">
@@ -2097,7 +2100,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>51</v>
@@ -2106,17 +2109,17 @@
         <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="10" t="n"/>
       <c r="H7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="8" s="1" spans="1:10">
@@ -2127,7 +2130,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>51</v>
@@ -2136,17 +2139,17 @@
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8" s="10" t="n"/>
       <c r="H8" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="9" s="1" spans="1:10">
@@ -2157,7 +2160,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>51</v>
@@ -2166,17 +2169,17 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="10" t="n"/>
       <c r="H9" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="10" s="1" spans="1:10">
@@ -2187,7 +2190,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>51</v>
@@ -2196,17 +2199,17 @@
         <v>19</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" s="10" t="n"/>
       <c r="H10" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +2308,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="3" s="1" spans="1:9">
@@ -2313,28 +2316,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="4" s="1" spans="1:9">
@@ -2342,28 +2345,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="5" s="1" spans="1:9">
@@ -2371,28 +2374,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="6" s="1" spans="1:9">
@@ -2400,28 +2403,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="7" s="1" spans="1:9">
@@ -2429,28 +2432,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="8" s="1" spans="1:9">
@@ -2458,28 +2461,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="9" s="1" spans="1:9">
@@ -2487,28 +2490,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="10" s="1" spans="1:9">
@@ -2516,28 +2519,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2633,13 +2636,13 @@
       </c>
       <c r="G2" s="8" t="n"/>
       <c r="H2" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="3" s="1" spans="1:10">
@@ -2647,31 +2650,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="44" r="4" s="1" spans="1:10">
@@ -2679,29 +2682,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" s="15" t="n"/>
       <c r="H4" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2794,13 +2797,13 @@
       </c>
       <c r="G2" s="8" t="n"/>
       <c r="H2" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="3" s="1" spans="1:10">
@@ -2808,31 +2811,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="4" s="1" spans="1:10">
@@ -2840,29 +2843,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G4" s="10" t="n"/>
       <c r="H4" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="5" s="1" spans="1:10">
@@ -2870,29 +2873,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G5" s="10" t="n"/>
       <c r="H5" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="6" s="1" spans="1:10">
@@ -2900,29 +2903,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6" s="10" t="n"/>
       <c r="H6" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="7" s="1" spans="1:10">
@@ -2930,29 +2933,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7" s="10" t="n"/>
       <c r="H7" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="8" s="1" spans="1:10">
@@ -2960,29 +2963,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G8" s="10" t="n"/>
       <c r="H8" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="50" r="9" s="1" spans="1:10">
@@ -2990,29 +2993,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9" s="10" t="n"/>
       <c r="H9" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/test_api_1.xlsx
+++ b/test_cases/test_api_1.xlsx
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>13564563342</v>
+        <v>13564563351</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/test_api_1.xlsx
+++ b/test_cases/test_api_1.xlsx
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>13564563351</v>
+        <v>13564563352</v>
       </c>
     </row>
   </sheetData>
